--- a/data/trans_orig/IQ11_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA038CC-716E-4C05-B093-39C2E2C6E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00794D1B-D6D1-4D85-8C5E-2D301A222A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B22859-1336-4043-BEB9-0DB563F0D807}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9351FCA4-EB63-4951-A140-E2347B7F813B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="411">
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="414">
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -107,7 +107,7 @@
     <t>6,44%</t>
   </si>
   <si>
-    <t>26,83%</t>
+    <t>26,76%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -116,7 +116,7 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>16,77%</t>
+    <t>16,74%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -128,1150 +128,1159 @@
     <t>14,45%</t>
   </si>
   <si>
-    <t>44,15%</t>
+    <t>43,3%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>23,56%</t>
+    <t>22,37%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los ultimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>21,16%</t>
+    <t>19,33%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>74,63%</t>
+    <t>75,48%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1291,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1378,39 +1387,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1462,7 +1471,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1573,13 +1582,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1588,6 +1590,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1652,19 +1661,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC7E02-F6C2-4EA2-8751-AFF93A2E7EF9}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062265F4-43ED-473E-AE93-C3228469CC57}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3621,6 +3650,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A16:A21"/>
@@ -3639,8 +3673,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AF0A32-1369-4497-B2E3-6B4C409FEB9F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FE5BAC-E099-4582-8E2E-3010CE1F4B6F}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3656,7 +3690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3769,35 +3803,35 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,35 +3852,35 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3895,7 @@
         <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
@@ -3874,13 +3908,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3889,7 +3923,7 @@
         <v>1001</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
@@ -3916,35 +3950,35 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3993,7 @@
         <v>2156</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
@@ -3972,13 +4006,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3987,7 +4021,7 @@
         <v>2156</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
@@ -4021,13 +4055,13 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -4065,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4095,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4144,13 @@
         <v>674</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4140,13 +4174,13 @@
         <v>674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4195,13 @@
         <v>1379</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4191,13 +4225,13 @@
         <v>1379</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4246,13 @@
         <v>695</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4227,13 +4261,13 @@
         <v>678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4242,13 +4276,13 @@
         <v>1373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4297,13 @@
         <v>9753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -4278,10 +4312,10 @@
         <v>7773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
@@ -4293,13 +4327,13 @@
         <v>17526</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4382,13 +4416,13 @@
         <v>675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4397,13 +4431,13 @@
         <v>675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4439,7 +4473,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4469,13 +4503,13 @@
         <v>2598</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4484,13 +4518,13 @@
         <v>675</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -4499,13 +4533,13 @@
         <v>3273</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4554,13 @@
         <v>2160</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4535,13 +4569,13 @@
         <v>3403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4550,13 +4584,13 @@
         <v>5563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4605,13 @@
         <v>10873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -4586,13 +4620,13 @@
         <v>13275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -4601,13 +4635,13 @@
         <v>24148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4690,13 +4724,13 @@
         <v>627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4705,13 +4739,13 @@
         <v>627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4747,7 +4781,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4762,7 +4796,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4811,13 @@
         <v>1107</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4792,13 +4826,13 @@
         <v>595</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -4807,13 +4841,13 @@
         <v>1701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4862,13 @@
         <v>1857</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4843,13 +4877,13 @@
         <v>675</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4858,13 +4892,13 @@
         <v>2532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4913,13 @@
         <v>13437</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -4894,13 +4928,13 @@
         <v>6601</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -4909,13 +4943,13 @@
         <v>20038</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,7 +5023,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5004,7 +5038,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5013,13 +5047,13 @@
         <v>641</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5049,13 +5083,13 @@
         <v>1452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5064,13 +5098,13 @@
         <v>1452</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5119,13 @@
         <v>1460</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5100,13 +5134,13 @@
         <v>2956</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -5115,13 +5149,13 @@
         <v>4416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5170,13 @@
         <v>744</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -5151,13 +5185,13 @@
         <v>3046</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -5166,13 +5200,13 @@
         <v>3790</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5221,13 @@
         <v>14244</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -5202,13 +5236,13 @@
         <v>4491</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -5217,13 +5251,13 @@
         <v>18735</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5325,13 @@
         <v>641</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -5306,13 +5340,13 @@
         <v>1302</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -5321,13 +5355,13 @@
         <v>1943</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5376,13 @@
         <v>674</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -5357,13 +5391,13 @@
         <v>1452</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -5372,13 +5406,13 @@
         <v>2126</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5427,13 @@
         <v>7544</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -5408,13 +5442,13 @@
         <v>4226</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -5423,13 +5457,13 @@
         <v>11770</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5478,13 @@
         <v>5456</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -5459,13 +5493,13 @@
         <v>7802</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -5474,13 +5508,13 @@
         <v>13259</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5529,13 @@
         <v>50463</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -5510,13 +5544,13 @@
         <v>32141</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>119</v>
@@ -5525,13 +5559,13 @@
         <v>82603</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,6 +5617,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5603,8 +5642,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F49DD20-B807-4476-B9A1-EBF8E045EE76}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7441BD53-83BE-48D6-B148-0A230225939F}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5620,7 +5659,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5733,7 +5772,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5748,7 +5787,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5784,7 +5823,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5799,7 +5838,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5835,7 +5874,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5850,7 +5889,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5886,7 +5925,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5901,7 +5940,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5934,7 +5973,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5949,7 +5988,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -6071,7 +6110,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6125,13 @@
         <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6101,13 +6140,13 @@
         <v>617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6116,13 +6155,13 @@
         <v>1317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,7 +6212,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,7 +6263,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6239,10 +6278,10 @@
         <v>6694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -6254,10 +6293,10 @@
         <v>5279</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
@@ -6269,10 +6308,10 @@
         <v>11973</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>15</v>
@@ -6349,7 +6388,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6400,7 +6439,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6451,7 +6490,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6496,13 +6535,13 @@
         <v>1857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6526,13 +6565,13 @@
         <v>1857</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6586,13 @@
         <v>9225</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6577,13 +6616,13 @@
         <v>18180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6687,7 +6726,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,7 +6762,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6738,7 +6777,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6789,7 +6828,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6843,13 @@
         <v>633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6819,13 +6858,13 @@
         <v>601</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6834,13 +6873,13 @@
         <v>1234</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,10 +6894,10 @@
         <v>6710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>15</v>
@@ -6870,10 +6909,10 @@
         <v>3864</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>15</v>
@@ -6885,10 +6924,10 @@
         <v>10574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>15</v>
@@ -6965,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7016,7 +7055,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7061,13 +7100,13 @@
         <v>1426</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7091,13 +7130,13 @@
         <v>1426</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7151,13 @@
         <v>905</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7142,13 +7181,13 @@
         <v>905</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,13 +7202,13 @@
         <v>9437</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7193,13 +7232,13 @@
         <v>12391</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7312,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7288,7 +7327,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7303,7 +7342,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7357,13 @@
         <v>700</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7333,13 +7372,13 @@
         <v>617</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -7348,13 +7387,13 @@
         <v>1317</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7408,13 @@
         <v>1426</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7390,7 +7429,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -7399,13 +7438,13 @@
         <v>1426</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7459,13 @@
         <v>3396</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7435,13 +7474,13 @@
         <v>601</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -7450,13 +7489,13 @@
         <v>3997</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7510,13 @@
         <v>34654</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H38" s="7">
         <v>34</v>
@@ -7486,10 +7525,10 @@
         <v>22151</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>15</v>
@@ -7501,13 +7540,13 @@
         <v>56805</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,6 +7598,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -7579,8 +7623,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF1A7AC-EF59-4514-910A-10A3A05A76D3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA289B6-1D57-4469-8D9F-D2ACBE494765}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7596,7 +7640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7701,13 +7745,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7722,7 +7766,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7737,7 +7781,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,13 +7794,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7771,7 +7815,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7786,7 +7830,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7843,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7820,7 +7864,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7835,7 +7879,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7892,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7869,7 +7913,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7884,7 +7928,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7941,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7915,7 +7959,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -7930,7 +7974,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -7946,13 +7990,13 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -8313,7 +8357,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8328,7 +8372,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8364,7 +8408,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8379,7 +8423,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8415,7 +8459,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8430,7 +8474,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8460,13 +8504,13 @@
         <v>2304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8481,7 +8525,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -8490,13 +8534,13 @@
         <v>2304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,10 +8555,10 @@
         <v>3232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -8529,7 +8573,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -8541,10 +8585,10 @@
         <v>7906</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>15</v>
@@ -8651,7 +8695,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8702,7 +8746,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,7 +8797,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,13 +8827,13 @@
         <v>800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8804,7 +8848,7 @@
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8834,10 +8878,10 @@
         <v>5611</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>15</v>
@@ -8849,10 +8893,10 @@
         <v>13067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>15</v>
@@ -9040,13 +9084,13 @@
         <v>607</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -9055,13 +9099,13 @@
         <v>607</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9076,13 +9120,13 @@
         <v>565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9106,13 +9150,13 @@
         <v>565</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9127,10 +9171,10 @@
         <v>6608</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>15</v>
@@ -9142,10 +9186,10 @@
         <v>1943</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>15</v>
@@ -9157,10 +9201,10 @@
         <v>8551</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>15</v>
@@ -9252,7 +9296,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9267,7 +9311,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9303,7 +9347,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9318,7 +9362,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9392,13 @@
         <v>607</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -9369,7 +9413,7 @@
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9384,13 +9428,13 @@
         <v>2869</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>179</v>
+        <v>398</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -9399,13 +9443,13 @@
         <v>800</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -9414,13 +9458,13 @@
         <v>3669</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9435,13 +9479,13 @@
         <v>19541</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -9450,10 +9494,10 @@
         <v>15794</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>15</v>
@@ -9465,13 +9509,13 @@
         <v>35335</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9523,6 +9567,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ11_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ11_1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00794D1B-D6D1-4D85-8C5E-2D301A222A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD847E88-D83D-4C96-85E6-EDAB952BA17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9351FCA4-EB63-4951-A140-E2347B7F813B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A97DD475-0B04-44CC-B8CA-CF670A0DB446}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="411">
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2007 (Tasa respuesta: 5,51%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -101,13 +101,13 @@
     <t>81,26%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>26,76%</t>
+    <t>26,39%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -116,7 +116,7 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>16,74%</t>
+    <t>15,52%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -128,22 +128,22 @@
     <t>14,45%</t>
   </si>
   <si>
-    <t>43,3%</t>
+    <t>43,21%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>22,37%</t>
+    <t>22,32%</t>
   </si>
   <si>
     <t>79,11%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -152,13 +152,13 @@
     <t>89,11%</t>
   </si>
   <si>
-    <t>71,11%</t>
+    <t>74,81%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -173,46 +173,46 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>20,78%</t>
+    <t>19,43%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>13,22%</t>
+    <t>18,05%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>38,99%</t>
+    <t>34,82%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>14,35%</t>
+    <t>13,94%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>79,22%</t>
+    <t>80,57%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>61,01%</t>
+    <t>65,18%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -227,37 +227,37 @@
     <t>9,7%</t>
   </si>
   <si>
-    <t>38,78%</t>
+    <t>47,91%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>50,74%</t>
+    <t>51,75%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>30,73%</t>
+    <t>29,14%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>61,22%</t>
+    <t>52,09%</t>
   </si>
   <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>49,26%</t>
+    <t>48,25%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>69,27%</t>
+    <t>70,86%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -269,34 +269,34 @@
     <t>5,77%</t>
   </si>
   <si>
-    <t>29,59%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>17,12%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>36,26%</t>
+    <t>36,73%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>22,42%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -305,16 +305,16 @@
     <t>89,46%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>8,4%</t>
+    <t>7,14%</t>
   </si>
   <si>
     <t>3,75%</t>
@@ -323,7 +323,7 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -335,553 +335,547 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>9,24%</t>
+    <t>8,25%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>5,4%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>11,44%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>87,89%</t>
   </si>
   <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
     <t>78,22%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2012 (Tasa respuesta: 7,67%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2015 (Tasa respuesta: 4,37%)</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2016 (Tasa respuesta: 4,37%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -899,37 +893,37 @@
     <t>9,46%</t>
   </si>
   <si>
-    <t>39,78%</t>
+    <t>39,51%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>45,2%</t>
+    <t>51,46%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>30,28%</t>
+    <t>30,55%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>60,22%</t>
+    <t>60,49%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>54,8%</t>
+    <t>48,54%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>69,72%</t>
+    <t>69,45%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -938,37 +932,37 @@
     <t>16,76%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>83,24%</t>
   </si>
   <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -977,76 +971,76 @@
     <t>8,63%</t>
   </si>
   <si>
-    <t>37,54%</t>
+    <t>36,51%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>55,7%</t>
+    <t>54,32%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>31,47%</t>
+    <t>31,36%</t>
   </si>
   <si>
     <t>91,37%</t>
   </si>
   <si>
-    <t>62,46%</t>
+    <t>63,49%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>44,3%</t>
+    <t>45,68%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>68,53%</t>
+    <t>68,64%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>36,15%</t>
+    <t>36,46%</t>
   </si>
   <si>
     <t>9,69%</t>
   </si>
   <si>
-    <t>29,77%</t>
+    <t>25,33%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -1058,76 +1052,76 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
+    <t>11,12%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>7,31%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,69%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>12,9%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>81,65%</t>
+    <t>82,39%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>Menores según el número de accidentes sufridos en los últimos 12 meses. en 2023 (Tasa respuesta: 2,86%)</t>
@@ -1139,19 +1133,19 @@
     <t>41,61%</t>
   </si>
   <si>
-    <t>79,96%</t>
+    <t>78,03%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>58,35%</t>
+    <t>58,78%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>20,04%</t>
+    <t>21,97%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -1160,28 +1154,28 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>41,22%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>47,64%</t>
+    <t>50,87%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>72,31%</t>
+    <t>70,45%</t>
   </si>
   <si>
     <t>23,81%</t>
@@ -1193,25 +1187,25 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>33,21%</t>
+    <t>33,47%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>41,37%</t>
+    <t>43,97%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>29,22%</t>
+    <t>31,79%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>58,63%</t>
+    <t>56,03%</t>
   </si>
   <si>
     <t>76,19%</t>
@@ -1223,7 +1217,7 @@
     <t>87,94%</t>
   </si>
   <si>
-    <t>61,93%</t>
+    <t>61,05%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -1232,37 +1226,34 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>8,09%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>31,65%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>19,33%</t>
+    <t>26,79%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>22,55%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>67,5%</t>
+    <t>68,35%</t>
   </si>
   <si>
     <t>97,4%</t>
@@ -1271,16 +1262,16 @@
     <t>91,82%</t>
   </si>
   <si>
-    <t>75,48%</t>
+    <t>75,14%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062265F4-43ED-473E-AE93-C3228469CC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B283BFCC-DCEC-4E73-A7F5-1EBB8715010A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3673,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FE5BAC-E099-4582-8E2E-3010CE1F4B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92E1164-90BD-4E56-9B7A-98D6F704D602}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4572,10 +4563,10 @@
         <v>163</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4584,13 +4575,13 @@
         <v>5563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4596,13 @@
         <v>10873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -4620,13 +4611,13 @@
         <v>13275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -4635,13 +4626,13 @@
         <v>24148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4724,13 +4715,13 @@
         <v>627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4739,13 +4730,13 @@
         <v>627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,7 +4757,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4847,7 +4838,7 @@
         <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4853,13 @@
         <v>1857</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4877,13 +4868,13 @@
         <v>675</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -4892,13 +4883,13 @@
         <v>2532</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4904,13 @@
         <v>13437</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -4928,13 +4919,13 @@
         <v>6601</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -4943,13 +4934,13 @@
         <v>20038</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,22 +5014,22 @@
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -5047,13 +5038,13 @@
         <v>641</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5074,13 @@
         <v>1452</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5098,13 +5089,13 @@
         <v>1452</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5110,13 @@
         <v>1460</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5134,13 +5125,13 @@
         <v>2956</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -5149,13 +5140,13 @@
         <v>4416</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5161,13 @@
         <v>744</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -5185,13 +5176,13 @@
         <v>3046</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -5200,13 +5191,13 @@
         <v>3790</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5242,13 @@
         <v>18735</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5316,13 @@
         <v>641</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -5340,13 +5331,13 @@
         <v>1302</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -5355,13 +5346,13 @@
         <v>1943</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5367,13 @@
         <v>674</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -5391,13 +5382,13 @@
         <v>1452</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -5406,13 +5397,13 @@
         <v>2126</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5433,13 @@
         <v>4226</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -5457,13 +5448,13 @@
         <v>11770</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5469,13 @@
         <v>5456</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -5493,13 +5484,13 @@
         <v>7802</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
@@ -5508,13 +5499,13 @@
         <v>13259</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5520,13 @@
         <v>50463</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>47</v>
@@ -5544,13 +5535,13 @@
         <v>32141</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>119</v>
@@ -5559,13 +5550,13 @@
         <v>82603</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,7 +5633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7441BD53-83BE-48D6-B148-0A230225939F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD4ABC8-FD92-4C76-BB03-164C750AE1A9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5659,7 +5650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5787,7 +5778,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5838,7 +5829,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5889,7 +5880,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5940,7 +5931,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5973,7 +5964,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -5988,7 +5979,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -6110,7 +6101,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6116,13 @@
         <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6140,13 +6131,13 @@
         <v>617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6155,13 +6146,13 @@
         <v>1317</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,7 +6203,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,7 +6254,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,10 +6269,10 @@
         <v>6694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -6293,10 +6284,10 @@
         <v>5279</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
@@ -6308,10 +6299,10 @@
         <v>11973</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>15</v>
@@ -6388,7 +6379,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6439,7 +6430,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6490,7 +6481,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6535,13 +6526,13 @@
         <v>1857</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6565,13 +6556,13 @@
         <v>1857</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6577,13 @@
         <v>9225</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6616,13 +6607,13 @@
         <v>18180</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,7 +6702,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6726,7 +6717,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6753,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6777,7 +6768,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,7 +6804,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6828,7 +6819,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6834,13 @@
         <v>633</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6858,13 +6849,13 @@
         <v>601</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6873,13 +6864,13 @@
         <v>1234</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,10 +6885,10 @@
         <v>6710</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>15</v>
@@ -6909,10 +6900,10 @@
         <v>3864</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>15</v>
@@ -6924,10 +6915,10 @@
         <v>10574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>15</v>
@@ -7004,7 +6995,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7055,7 +7046,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7100,13 +7091,13 @@
         <v>1426</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -7130,13 +7121,13 @@
         <v>1426</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7142,13 @@
         <v>905</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7187,7 +7178,7 @@
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7193,13 @@
         <v>9437</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7232,13 +7223,13 @@
         <v>12391</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,37 +7303,37 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7348,13 @@
         <v>700</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7372,13 +7363,13 @@
         <v>617</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>105</v>
+        <v>339</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -7387,13 +7378,13 @@
         <v>1317</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,14 +7399,14 @@
         <v>1426</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
@@ -7429,7 +7420,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -7438,13 +7429,13 @@
         <v>1426</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7450,13 @@
         <v>3396</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7474,13 +7465,13 @@
         <v>601</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -7489,13 +7480,13 @@
         <v>3997</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7501,13 @@
         <v>34654</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H38" s="7">
         <v>34</v>
@@ -7525,10 +7516,10 @@
         <v>22151</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>15</v>
@@ -7540,13 +7531,13 @@
         <v>56805</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,7 +7614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA289B6-1D57-4469-8D9F-D2ACBE494765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CECA99-9D3B-434A-AFA0-3794DBA70BF3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7640,7 +7631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7766,7 +7757,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7781,7 +7772,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,7 +7806,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7830,7 +7821,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,7 +7855,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7879,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,7 +7904,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7928,7 +7919,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,7 +7950,7 @@
         <v>15</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -7974,7 +7965,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -8357,7 +8348,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8372,7 +8363,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8408,7 +8399,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8423,7 +8414,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8459,7 +8450,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8474,7 +8465,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8504,13 +8495,13 @@
         <v>2304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8525,7 +8516,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -8534,13 +8525,13 @@
         <v>2304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,10 +8546,10 @@
         <v>3232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>15</v>
@@ -8573,7 +8564,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -8585,10 +8576,10 @@
         <v>7906</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>15</v>
@@ -8695,7 +8686,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,7 +8737,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,7 +8788,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8818,13 @@
         <v>800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8848,7 +8839,7 @@
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,10 +8869,10 @@
         <v>5611</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>15</v>
@@ -8893,10 +8884,10 @@
         <v>13067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>15</v>
@@ -9084,13 +9075,13 @@
         <v>607</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -9099,13 +9090,13 @@
         <v>607</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,13 +9111,13 @@
         <v>565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9150,13 +9141,13 @@
         <v>565</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9171,10 +9162,10 @@
         <v>6608</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>15</v>
@@ -9186,10 +9177,10 @@
         <v>1943</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>15</v>
@@ -9201,10 +9192,10 @@
         <v>8551</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>15</v>
@@ -9296,7 +9287,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -9311,7 +9302,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9347,7 +9338,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9362,7 +9353,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9383,13 @@
         <v>607</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -9413,7 +9404,7 @@
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9428,13 +9419,13 @@
         <v>2869</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -9443,13 +9434,13 @@
         <v>800</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -9458,13 +9449,13 @@
         <v>3669</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,13 +9470,13 @@
         <v>19541</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -9494,10 +9485,10 @@
         <v>15794</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>15</v>
@@ -9509,13 +9500,13 @@
         <v>35335</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
